--- a/TODO_list.xlsx
+++ b/TODO_list.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -869,9 +869,9 @@
           <t>Add Expert role - can create and manage exams</t>
         </is>
       </c>
-      <c r="B36" s="3" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>DONE</t>
         </is>
       </c>
     </row>
@@ -881,9 +881,9 @@
           <t>Add Expert role - can manage questions</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>DONE</t>
         </is>
       </c>
     </row>
@@ -893,9 +893,9 @@
           <t>Add Expert role - cannot manage users or system settings</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>DONE</t>
         </is>
       </c>
     </row>
@@ -917,9 +917,9 @@
           <t>Implement settings page for administrator and experts</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>DONE</t>
         </is>
       </c>
     </row>
@@ -929,9 +929,9 @@
           <t>Implement advanced post-exam reports - time spent per question</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>DONE</t>
         </is>
       </c>
     </row>
@@ -941,9 +941,9 @@
           <t>Implement advanced post-exam reports - detailed performance breakdown</t>
         </is>
       </c>
-      <c r="B42" s="3" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>DONE</t>
         </is>
       </c>
     </row>
@@ -953,9 +953,9 @@
           <t>Export exam results as PDF document</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>DONE</t>
         </is>
       </c>
     </row>
@@ -965,9 +965,9 @@
           <t>Integrate email service for notifications</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>Pending</t>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>DONE</t>
         </is>
       </c>
     </row>
@@ -1040,6 +1040,234 @@
       <c r="B50" s="3" t="inlineStr">
         <is>
           <t>Pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Preset template system for HR exam assignments</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Multi-template exam assignments with topic-based naming</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Keyboard shortcuts for exam navigation (arrows, space, enter)</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Compact sidebar layout for better space usage</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Blue notification badge on grading menu for pending items</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Responsive dialogs with page-based sizing</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Question pool selection in manual assignment creation</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Azercosmos branding and confidential footer in PDF reports</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Unicode font support (Arial Unicode MS) for Azerbaijani text</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Enhanced PDF reports with detailed question-level analysis</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Student performance analytics with visual charts</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Assignment-based exam system (replacing topic-based)</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Database migrations system for schema updates</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Archived field for exams and questions</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Security settings cleanup and improvements</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Image cleanup system for orphaned files</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>View switcher for role-based interface switching</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Permission system for granular access control</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Exam template presets for quick exam creation</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>DONE</t>
         </is>
       </c>
     </row>
